--- a/Отфильтрованные данные.xlsx
+++ b/Отфильтрованные данные.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR5"/>
+  <dimension ref="A1:BR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Поставка судна на воздушной подушке</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Сортировать по Дате (возростание)</t>
+          <t>Сортировать по возрастанию цены</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,21 +491,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44927</v>
+        <v>36526</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12000000</t>
-        </is>
-      </c>
+        <v>45323</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -857,7 +853,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -866,7 +862,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>№0372200084223000012</t>
+          <t>№0342100023622000020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -876,7 +872,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Поставка продукции судостроительной промышленности – спасательного маломерного моторного судна с прицепом для обеспечения деятельности Санкт-Петербургского государственного казенного учреждения «Поисково-спасательная служба Санкт-Петербурга</t>
+          <t>Поставка судна на воздушной подушке с прицепом и оборудованием</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -898,7 +894,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12000000</v>
+        <v>13014000</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -935,7 +931,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>САНКТ-ПЕТЕРБУРГСКОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ПОИСКОВО-СПАСАТЕЛЬНАЯ СЛУЖБА САНКТ-ПЕТЕРБУРГА"</t>
+          <t>СРЕДНЕВОЛЖСКОЕ ЛИНЕЙНОЕ УПРАВЛЕНИЕ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ НА ТРАНСПОРТЕ</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -944,10 +940,10 @@
         </is>
       </c>
       <c r="T4" s="2" t="n">
-        <v>44967</v>
+        <v>44881</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>44967</v>
+        <v>44881</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -961,10 +957,10 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" s="2" t="n">
-        <v>44967</v>
+        <v>44881</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>44967</v>
+        <v>44881</v>
       </c>
       <c r="AA4" t="n">
         <v>3</v>
@@ -973,98 +969,104 @@
         <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>12071236.67</v>
+        <v>13014000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11950000</v>
+        <v>13009000</v>
       </c>
       <c r="AE4" t="n">
-        <v>12163710</v>
+        <v>13019000</v>
       </c>
       <c r="AF4" t="n">
-        <v>109720.04</v>
+        <v>5000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>{"ТКП №1": 11950000, "ТКП №2": 12100000, "ТКП №3": 12163710}</t>
+          <t>{"ТКП №1": 13009000, "ТКП №2": 13014000, "ТКП №3": 13019000}</t>
         </is>
       </c>
       <c r="AI4" t="n">
-        <v>12071236.67</v>
+        <v>13014000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>{"Ценовое предложение №1": "не подано предложений", "Ценовое предложение №2": "не подано предложений", "Ценовое предложение №3": "не подано предложений", "Ценовое предложение №4": "не подано предложений", "Ценовое предложение №5": "не подано предложений", "Ценовое предложение №6": ""}</t>
+          <t>{"Ценовое предложение №1": "13014000", "Ценовое предложение №2": "", "Ценовое предложение №3": "", "Ценовое предложение №4": "", "Ценовое предложение №5": "", "Ценовое предложение №6": ""}</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Заявитель №1": "не подано предложений", "Заявитель №2": "не подано предложений", "Заявитель №3": "не подано предложений", "Заявитель №4": "не подано предложений", "Заявитель №5": "", "Заявитель №6": ""}</t>
+          <t>{"Заявитель №1": "ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ \"АМФИБИЙНАЯ ТЕХНИКА\"", "Заявитель №2": "", "Заявитель №3": "", "Заявитель №4": "", "Заявитель №5": "", "Заявитель №6": ""}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>{"Статус заявителя №1": "не подано предложений", "Статус заявителя №2": "не подано предложений", "Статус заявителя №3": "не подано предложений", "Статус заявителя №4": "не подано предложений", "Статус заявителя №5": "", "Статус заявителя №6": ""}</t>
+          <t>{"Статус заявителя №1": "", "Статус заявителя №2": "", "Статус заявителя №3": "", "Статус заявителя №4": "", "Статус заявителя №5": "", "Статус заявителя №6": ""}</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>не подано предложений</t>
+          <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АМФИБИЙНАЯ ТЕХНИКА"</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>САНКТ-ПЕТЕРБУРГСКОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ПОИСКОВО-СПАСАТЕЛЬНАЯ СЛУЖБА САНКТ-ПЕТЕРБУРГА"</t>
+          <t>СРЕДНЕВОЛЖСКОЕ ЛИНЕЙНОЕ УПРАВЛЕНИЕ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ НА ТРАНСПОРТЕ</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>не подано предложений</t>
+          <t>85007194</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>не подано предложений</t>
+          <t>16317021642 22 000033</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>не подано предложений</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
+          <t>3.42E+17</t>
+        </is>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13014000</t>
         </is>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
-      <c r="BA4" t="inlineStr"/>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
@@ -1087,7 +1089,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1096,7 +1098,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>№0122300017023000012</t>
+          <t>№0319300010122000854</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1106,7 +1108,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Поставка маломерного спасательного судна, для нужд городского поселения "Город Амурск"</t>
+          <t>Поставка судна на воздушной подушке</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1128,7 +1130,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3055000</v>
+        <v>14119000</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1165,7 +1167,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ ГОРОДСКОГО ПОСЕЛЕНИЯ "ГОРОД АМУРСК" АМУРСКОГО МУНИЦИПАЛЬНОГО РАЙОНА ХАБАРОВСКОГО КРАЯ</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫХ ЗАКУПОК"</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1174,10 +1176,10 @@
         </is>
       </c>
       <c r="T5" s="2" t="n">
-        <v>45005</v>
+        <v>44890</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>45005</v>
+        <v>44890</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1190,13 +1192,13 @@
         </is>
       </c>
       <c r="X5" s="2" t="n">
-        <v>44995</v>
+        <v>44845</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>45005</v>
+        <v>44890</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>45005</v>
+        <v>44890</v>
       </c>
       <c r="AA5" t="n">
         <v>3</v>
@@ -1205,27 +1207,27 @@
         <v>3</v>
       </c>
       <c r="AC5" t="n">
-        <v>3055000</v>
+        <v>14119000</v>
       </c>
       <c r="AD5" t="n">
-        <v>3000000</v>
+        <v>14045000</v>
       </c>
       <c r="AE5" t="n">
-        <v>3110000</v>
+        <v>14194000</v>
       </c>
       <c r="AF5" t="n">
-        <v>55000</v>
+        <v>74505.03</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>{"ТКП №1": 3000000, "ТКП №2": 3055000, "ТКП №3": 3110000}</t>
+          <t>{"ТКП №1": 14194000, "ТКП №2": 14118000, "ТКП №3": 14045000}</t>
         </is>
       </c>
       <c r="AI5" t="n">
-        <v>3055000</v>
+        <v>14119000</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -1248,12 +1250,12 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>{"Ценовое предложение №1": "3055000", "Ценовое предложение №2": "", "Ценовое предложение №3": "", "Ценовое предложение №4": "", "Ценовое предложение №5": "", "Ценовое предложение №6": ""}</t>
+          <t>{"Ценовое предложение №1": "14119000", "Ценовое предложение №2": "", "Ценовое предложение №3": "", "Ценовое предложение №4": "", "Ценовое предложение №5": "", "Ценовое предложение №6": ""}</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Заявитель №1": "ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ \"БОГАЧЕВА ДВ\"", "Заявитель №2": "", "Заявитель №3": "", "Заявитель №4": "", "Заявитель №5": "", "Заявитель №6": ""}</t>
+          <t>{"Заявитель №1": "ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ \"ФЛОТ-С\"", "Заявитель №2": "", "Заявитель №3": "", "Заявитель №4": "", "Заявитель №5": "", "Заявитель №6": ""}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1263,38 +1265,36 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БОГАЧЕВА ДВ"</t>
+          <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФЛОТ-С"</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ ГОРОДСКОГО ПОСЕЛЕНИЯ "ГОРОД АМУРСК" АМУРСКОГО МУНИЦИПАЛЬНОГО РАЙОНА ХАБАРОВСКОГО КРАЯ</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫХ ЗАКУПОК"</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>91030093</t>
+          <t>85659050</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>32706026117 23 000020</t>
+          <t>32457071269 22 000102</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1.22E+21</t>
+          <t>220854</t>
         </is>
       </c>
       <c r="AW5" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>45124</v>
-      </c>
+        <v>44914</v>
+      </c>
+      <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>3055000</t>
+          <t>14119000</t>
         </is>
       </c>
       <c r="AZ5" t="n">
@@ -1323,6 +1323,238 @@
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>44-ФЗ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>№0319300003422000081</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Поставка судна на воздушной подушке для нужд Таймырского Долгано-Ненецкого муниципального района</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">анализ рынка ст.22 44-ФЗ </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">анализ рынка ст.22 44-ФЗ </t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>58895000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ МУНИЦИПАЛЬНОГО ЗАКАЗА И ПОТРЕБИТЕЛЬСКОГО РЫНКА АДМИНИСТРАЦИИ ТАЙМЫРСКОГО ДОЛГАНО-НЕНЕЦКОГО МУНИЦИПАЛЬНОГО РАЙОНА</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>58895000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>58200000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>967509.6899999999</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>{"ТКП №1": 58485000, "ТКП №2": 60000000, "ТКП №3": 58200000}</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>58895000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>{"Ценовое предложение №1": "не подано предложений", "Ценовое предложение №2": "", "Ценовое предложение №3": "", "Ценовое предложение №4": "", "Ценовое предложение №5": "", "Ценовое предложение №6": ""}</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>{"Заявитель №1": "", "Заявитель №2": "", "Заявитель №3": "", "Заявитель №4": "", "Заявитель №5": "", "Заявитель №6": ""}</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>{"Статус заявителя №1": "", "Статус заявителя №2": "", "Статус заявителя №3": "", "Статус заявителя №4": "", "Статус заявителя №5": "", "Статус заявителя №6": ""}</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ МУНИЦИПАЛЬНОГО ЗАКАЗА И ПОТРЕБИТЕЛЬСКОГО РЫНКА АДМИНИСТРАЦИИ ТАЙМЫРСКОГО ДОЛГАНО-НЕНЕЦКОГО МУНИЦИПАЛЬНОГО РАЙОНА</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
